--- a/utrecht.xlsx
+++ b/utrecht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hldeb\PycharmProjects\meetjestad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B12538-68A4-4D27-9740-31D5CF821A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D608D3A-D4CE-4BC3-AA76-097FC9A6168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C0604279-5456-4AC0-B0F9-4B3265BFFC27}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{31E6154C-64D7-4D10-9342-567634A294B6}"/>
   </bookViews>
   <sheets>
     <sheet name="utrecht" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>start Utrecht</t>
   </si>
   <si>
-    <t>Fijnstof</t>
+    <t>eind Utrecht</t>
   </si>
   <si>
-    <t>eind Utrecht</t>
+    <t>Fijnstof</t>
   </si>
 </sst>
 </file>
@@ -898,19 +898,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A029AA73-FF89-4C4E-99A5-EB69FE912B20}">
-  <dimension ref="A1:F113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7814A70A-B029-4A6B-8F5D-9A477BF0AB93}">
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.06640625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -927,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1020,16 +1020,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1">
-        <v>45468</v>
+        <v>44860</v>
       </c>
       <c r="C7" s="1">
-        <v>45875</v>
+        <v>45237</v>
       </c>
       <c r="D7" s="1">
-        <v>45468</v>
+        <v>44860</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1">
-        <v>45094</v>
+        <v>45468</v>
       </c>
       <c r="C8" s="1">
-        <v>45305</v>
+        <v>45875</v>
       </c>
       <c r="D8" s="1">
-        <v>45094</v>
+        <v>45468</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1054,16 +1054,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1">
-        <v>44563</v>
+        <v>45094</v>
       </c>
       <c r="C9" s="1">
-        <v>44792</v>
+        <v>45305</v>
       </c>
       <c r="D9" s="1">
-        <v>44563</v>
+        <v>45094</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1">
-        <v>45097</v>
+        <v>44563</v>
       </c>
       <c r="C10" s="1">
-        <v>45898</v>
+        <v>44792</v>
       </c>
       <c r="D10" s="1">
-        <v>45097</v>
+        <v>44563</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1088,16 +1088,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="1">
-        <v>45036</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45317</v>
+        <v>45097</v>
       </c>
       <c r="D11" s="1">
-        <v>45036</v>
+        <v>45097</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1105,13 +1102,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="1">
         <v>45036</v>
       </c>
       <c r="C12" s="1">
-        <v>45185</v>
+        <v>45317</v>
       </c>
       <c r="D12" s="1">
         <v>45036</v>
@@ -1122,16 +1119,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="1">
-        <v>44977</v>
+        <v>45036</v>
       </c>
       <c r="C13" s="1">
-        <v>45898</v>
+        <v>45185</v>
       </c>
       <c r="D13" s="1">
-        <v>44977</v>
+        <v>45036</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1139,16 +1136,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1">
-        <v>44994</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45893</v>
+        <v>44977</v>
       </c>
       <c r="D14" s="1">
-        <v>44994</v>
+        <v>44977</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1156,16 +1150,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1">
-        <v>44978</v>
+        <v>44994</v>
       </c>
       <c r="C15" s="1">
-        <v>45730</v>
+        <v>45893</v>
       </c>
       <c r="D15" s="1">
-        <v>44978</v>
+        <v>44994</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1173,16 +1167,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1">
-        <v>45461</v>
+        <v>44978</v>
       </c>
       <c r="C16" s="1">
-        <v>45544</v>
+        <v>45730</v>
       </c>
       <c r="D16" s="1">
-        <v>45461</v>
+        <v>44978</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1190,16 +1184,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="B17" s="1">
-        <v>44976</v>
+        <v>45461</v>
       </c>
       <c r="C17" s="1">
-        <v>45744</v>
+        <v>45544</v>
       </c>
       <c r="D17" s="1">
-        <v>44976</v>
+        <v>45461</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1207,16 +1201,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>586</v>
+        <v>418</v>
       </c>
       <c r="B18" s="1">
-        <v>45543</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45543</v>
+        <v>45705</v>
       </c>
       <c r="D18" s="1">
-        <v>45543</v>
+        <v>45705</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1224,16 +1215,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>639</v>
+        <v>434</v>
       </c>
       <c r="B19" s="1">
-        <v>45091</v>
+        <v>44976</v>
       </c>
       <c r="C19" s="1">
-        <v>45767</v>
+        <v>45744</v>
       </c>
       <c r="D19" s="1">
-        <v>45091</v>
+        <v>44976</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1241,16 +1232,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="B20" s="1">
-        <v>45008</v>
+        <v>45543</v>
       </c>
       <c r="C20" s="1">
-        <v>45362</v>
+        <v>45543</v>
       </c>
       <c r="D20" s="1">
-        <v>45008</v>
+        <v>45543</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1258,33 +1249,33 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="B21" s="1">
         <v>44562</v>
       </c>
-      <c r="C21" s="1">
-        <v>45898</v>
-      </c>
       <c r="D21" s="1">
-        <v>44562</v>
+        <v>44895</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45406</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="B22" s="1">
-        <v>44958</v>
+        <v>45091</v>
       </c>
       <c r="C22" s="1">
-        <v>45245</v>
+        <v>45767</v>
       </c>
       <c r="D22" s="1">
-        <v>44958</v>
+        <v>45091</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1292,121 +1283,106 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="B23" s="1">
-        <v>44562</v>
+        <v>45008</v>
       </c>
       <c r="C23" s="1">
-        <v>45898</v>
+        <v>45362</v>
       </c>
       <c r="D23" s="1">
-        <v>44562</v>
+        <v>45008</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B24" s="1">
-        <v>44592</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45756</v>
+        <v>44562</v>
       </c>
       <c r="D24" s="1">
-        <v>44596</v>
+        <v>44562</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B25" s="1">
-        <v>44562</v>
+        <v>44958</v>
       </c>
       <c r="C25" s="1">
-        <v>45898</v>
+        <v>45245</v>
       </c>
       <c r="D25" s="1">
-        <v>44562</v>
+        <v>44958</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B26" s="1">
-        <v>44599</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45898</v>
+        <v>44562</v>
       </c>
       <c r="D26" s="1">
-        <v>44599</v>
-      </c>
-      <c r="E26" s="1">
-        <v>45038</v>
+        <v>44562</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B27" s="1">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="C27" s="1">
-        <v>45898</v>
+        <v>45756</v>
       </c>
       <c r="D27" s="1">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B28" s="1">
-        <v>44779</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44966</v>
+        <v>44562</v>
       </c>
       <c r="D28" s="1">
-        <v>44779</v>
+        <v>44562</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B29" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C29" s="1">
-        <v>45678</v>
+        <v>44599</v>
       </c>
       <c r="D29" s="1">
-        <v>44562</v>
+        <v>44599</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1414,16 +1390,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B30" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45292</v>
+        <v>44563</v>
       </c>
       <c r="D30" s="1">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1431,19 +1404,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B31" s="1">
-        <v>44940</v>
+        <v>44779</v>
       </c>
       <c r="C31" s="1">
-        <v>45893</v>
+        <v>44966</v>
       </c>
       <c r="D31" s="1">
-        <v>44940</v>
-      </c>
-      <c r="E31" s="1">
-        <v>44941</v>
+        <v>44779</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1451,16 +1421,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B32" s="1">
-        <v>44936</v>
+        <v>44562</v>
       </c>
       <c r="C32" s="1">
-        <v>45898</v>
+        <v>45678</v>
       </c>
       <c r="D32" s="1">
-        <v>44936</v>
+        <v>44562</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1468,16 +1438,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B33" s="1">
-        <v>45019</v>
+        <v>44562</v>
       </c>
       <c r="C33" s="1">
-        <v>45019</v>
+        <v>45292</v>
       </c>
       <c r="D33" s="1">
-        <v>45019</v>
+        <v>44562</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1485,16 +1455,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B34" s="1">
-        <v>45060</v>
+        <v>44940</v>
       </c>
       <c r="C34" s="1">
-        <v>45747</v>
+        <v>45893</v>
       </c>
       <c r="D34" s="1">
-        <v>45060</v>
+        <v>44940</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44941</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1502,16 +1475,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B35" s="1">
-        <v>45035</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45747</v>
+        <v>44936</v>
       </c>
       <c r="D35" s="1">
-        <v>45035</v>
+        <v>44936</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1519,16 +1489,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B36" s="1">
-        <v>45039</v>
+        <v>45019</v>
       </c>
       <c r="C36" s="1">
-        <v>45050</v>
+        <v>45019</v>
       </c>
       <c r="D36" s="1">
-        <v>45039</v>
+        <v>45019</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1536,16 +1506,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B37" s="1">
-        <v>45704</v>
+        <v>45060</v>
       </c>
       <c r="C37" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="D37" s="1">
-        <v>45704</v>
+        <v>45060</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1553,16 +1523,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B38" s="1">
-        <v>44584</v>
+        <v>45035</v>
       </c>
       <c r="C38" s="1">
-        <v>45614</v>
+        <v>45747</v>
       </c>
       <c r="D38" s="1">
-        <v>44584</v>
+        <v>45035</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1570,16 +1540,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B39" s="1">
-        <v>44562</v>
+        <v>45039</v>
       </c>
       <c r="C39" s="1">
-        <v>45520</v>
+        <v>45050</v>
       </c>
       <c r="D39" s="1">
-        <v>44562</v>
+        <v>45039</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1587,16 +1557,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B40" s="1">
-        <v>44585</v>
+        <v>45704</v>
       </c>
       <c r="C40" s="1">
-        <v>45253</v>
+        <v>45749</v>
       </c>
       <c r="D40" s="1">
-        <v>44585</v>
+        <v>45704</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1604,16 +1574,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B41" s="1">
-        <v>44601</v>
+        <v>44584</v>
       </c>
       <c r="C41" s="1">
-        <v>45897</v>
+        <v>45614</v>
       </c>
       <c r="D41" s="1">
-        <v>44601</v>
+        <v>44584</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1621,13 +1591,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B42" s="1">
         <v>44562</v>
       </c>
       <c r="C42" s="1">
-        <v>45898</v>
+        <v>45520</v>
       </c>
       <c r="D42" s="1">
         <v>44562</v>
@@ -1638,16 +1608,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="B43" s="1">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="C43" s="1">
-        <v>45898</v>
+        <v>45253</v>
       </c>
       <c r="D43" s="1">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1655,33 +1625,30 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B44" s="1">
-        <v>44562</v>
+        <v>44601</v>
       </c>
       <c r="C44" s="1">
-        <v>45785</v>
+        <v>45897</v>
       </c>
       <c r="D44" s="1">
-        <v>44562</v>
+        <v>44601</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="B45" s="1">
-        <v>44585</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44592</v>
+        <v>44562</v>
       </c>
       <c r="D45" s="1">
-        <v>44585</v>
+        <v>44562</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1689,33 +1656,27 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B46" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45488</v>
+        <v>44910</v>
       </c>
       <c r="D46" s="1">
-        <v>44562</v>
+        <v>44910</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B47" s="1">
-        <v>44604</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44636</v>
+        <v>44562</v>
       </c>
       <c r="D47" s="1">
-        <v>44604</v>
+        <v>44562</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1723,33 +1684,33 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B48" s="1">
-        <v>44603</v>
+        <v>44562</v>
       </c>
       <c r="C48" s="1">
-        <v>45605</v>
+        <v>45785</v>
       </c>
       <c r="D48" s="1">
-        <v>44603</v>
+        <v>44562</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B49" s="1">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="C49" s="1">
-        <v>45224</v>
+        <v>44592</v>
       </c>
       <c r="D49" s="1">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1757,16 +1718,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B50" s="1">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="C50" s="1">
-        <v>45666</v>
+        <v>45488</v>
       </c>
       <c r="D50" s="1">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1774,33 +1735,33 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B51" s="1">
-        <v>44586</v>
+        <v>44604</v>
       </c>
       <c r="C51" s="1">
-        <v>45898</v>
+        <v>44636</v>
       </c>
       <c r="D51" s="1">
-        <v>44586</v>
+        <v>44604</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B52" s="1">
-        <v>44586</v>
+        <v>44603</v>
       </c>
       <c r="C52" s="1">
-        <v>45083</v>
+        <v>45605</v>
       </c>
       <c r="D52" s="1">
-        <v>44586</v>
+        <v>44603</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1808,33 +1769,33 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B53" s="1">
-        <v>44589</v>
+        <v>44563</v>
       </c>
       <c r="C53" s="1">
-        <v>45898</v>
+        <v>45224</v>
       </c>
       <c r="D53" s="1">
-        <v>44589</v>
+        <v>44563</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B54" s="1">
-        <v>44562</v>
+        <v>44576</v>
       </c>
       <c r="C54" s="1">
-        <v>45897</v>
+        <v>45666</v>
       </c>
       <c r="D54" s="1">
-        <v>44562</v>
+        <v>44576</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1842,36 +1803,30 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B55" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45898</v>
+        <v>44586</v>
       </c>
       <c r="D55" s="1">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B56" s="1">
-        <v>44573</v>
+        <v>44586</v>
       </c>
       <c r="C56" s="1">
-        <v>45239</v>
+        <v>45083</v>
       </c>
       <c r="D56" s="1">
-        <v>44573</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45204</v>
+        <v>44586</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1879,47 +1834,41 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B57" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45748</v>
+        <v>44589</v>
       </c>
       <c r="D57" s="1">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B58" s="1">
         <v>44562</v>
       </c>
       <c r="C58" s="1">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="D58" s="1">
         <v>44562</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B59" s="1">
         <v>44562</v>
-      </c>
-      <c r="C59" s="1">
-        <v>45747</v>
       </c>
       <c r="D59" s="1">
         <v>44562</v>
@@ -1930,16 +1879,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B60" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="C60" s="1">
-        <v>45023</v>
+        <v>45239</v>
       </c>
       <c r="D60" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1947,16 +1896,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B61" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C61" s="1">
-        <v>45872</v>
+        <v>45748</v>
       </c>
       <c r="D61" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1964,16 +1913,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B62" s="1">
-        <v>44573</v>
-      </c>
-      <c r="C62" s="1">
-        <v>45543</v>
+        <v>44562</v>
       </c>
       <c r="D62" s="1">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1981,16 +1927,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B63" s="1">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="C63" s="1">
-        <v>45898</v>
+        <v>45747</v>
       </c>
       <c r="D63" s="1">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1998,13 +1944,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B64" s="1">
         <v>44562</v>
       </c>
       <c r="C64" s="1">
-        <v>45898</v>
+        <v>45023</v>
       </c>
       <c r="D64" s="1">
         <v>44562</v>
@@ -2015,50 +1961,47 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B65" s="1">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="C65" s="1">
-        <v>45898</v>
+        <v>45872</v>
       </c>
       <c r="D65" s="1">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B66" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="C66" s="1">
-        <v>45898</v>
+        <v>45543</v>
       </c>
       <c r="D66" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B67" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C67" s="1">
-        <v>45793</v>
+        <v>44574</v>
       </c>
       <c r="D67" s="1">
-        <v>44562</v>
+        <v>44574</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2066,13 +2009,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B68" s="1">
         <v>44562</v>
-      </c>
-      <c r="C68" s="1">
-        <v>45255</v>
       </c>
       <c r="D68" s="1">
         <v>44562</v>
@@ -2083,30 +2023,24 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B69" s="1">
-        <v>44570</v>
-      </c>
-      <c r="C69" s="1">
-        <v>44772</v>
+        <v>44578</v>
       </c>
       <c r="D69" s="1">
-        <v>44570</v>
+        <v>44578</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="B70" s="1">
         <v>44562</v>
-      </c>
-      <c r="C70" s="1">
-        <v>45785</v>
       </c>
       <c r="D70" s="1">
         <v>44562</v>
@@ -2117,13 +2051,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="B71" s="1">
         <v>44562</v>
       </c>
       <c r="C71" s="1">
-        <v>45097</v>
+        <v>45793</v>
       </c>
       <c r="D71" s="1">
         <v>44562</v>
@@ -2134,13 +2068,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="B72" s="1">
         <v>44562</v>
       </c>
       <c r="C72" s="1">
-        <v>45898</v>
+        <v>45255</v>
       </c>
       <c r="D72" s="1">
         <v>44562</v>
@@ -2151,16 +2085,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>835</v>
+        <v>796</v>
       </c>
       <c r="B73" s="1">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="C73" s="1">
-        <v>45761</v>
+        <v>44772</v>
       </c>
       <c r="D73" s="1">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2168,16 +2102,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B74" s="1">
-        <v>45543</v>
+        <v>44562</v>
       </c>
       <c r="C74" s="1">
-        <v>45748</v>
+        <v>45785</v>
       </c>
       <c r="D74" s="1">
-        <v>45543</v>
+        <v>44562</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2185,16 +2119,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B75" s="1">
-        <v>44849</v>
+        <v>44562</v>
       </c>
       <c r="C75" s="1">
-        <v>45898</v>
+        <v>45097</v>
       </c>
       <c r="D75" s="1">
-        <v>44849</v>
+        <v>44562</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2202,13 +2136,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B76" s="1">
         <v>44562</v>
-      </c>
-      <c r="C76" s="1">
-        <v>44829</v>
       </c>
       <c r="D76" s="1">
         <v>44562</v>
@@ -2219,50 +2150,47 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B77" s="1">
-        <v>44568</v>
+        <v>44572</v>
       </c>
       <c r="C77" s="1">
-        <v>45898</v>
+        <v>45761</v>
       </c>
       <c r="D77" s="1">
-        <v>44568</v>
+        <v>44572</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B78" s="1">
-        <v>44562</v>
+        <v>45543</v>
       </c>
       <c r="C78" s="1">
-        <v>45731</v>
+        <v>45748</v>
       </c>
       <c r="D78" s="1">
-        <v>44562</v>
+        <v>45543</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>864</v>
+        <v>837</v>
       </c>
       <c r="B79" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C79" s="1">
-        <v>45426</v>
+        <v>44849</v>
       </c>
       <c r="D79" s="1">
-        <v>44562</v>
+        <v>44849</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2270,16 +2198,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="B80" s="1">
-        <v>44611</v>
-      </c>
-      <c r="C80" s="1">
-        <v>44905</v>
+        <v>45207</v>
       </c>
       <c r="D80" s="1">
-        <v>44611</v>
+        <v>45207</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2287,13 +2212,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="B81" s="1">
         <v>44562</v>
       </c>
       <c r="C81" s="1">
-        <v>45898</v>
+        <v>44829</v>
       </c>
       <c r="D81" s="1">
         <v>44562</v>
@@ -2304,30 +2229,27 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="B82" s="1">
-        <v>44576</v>
-      </c>
-      <c r="C82" s="1">
-        <v>45106</v>
+        <v>44568</v>
       </c>
       <c r="D82" s="1">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="B83" s="1">
         <v>44562</v>
       </c>
       <c r="C83" s="1">
-        <v>45206</v>
+        <v>45774</v>
       </c>
       <c r="D83" s="1">
         <v>44562</v>
@@ -2338,70 +2260,64 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="B84" s="1">
         <v>44562</v>
       </c>
       <c r="C84" s="1">
-        <v>45210</v>
+        <v>45731</v>
       </c>
       <c r="D84" s="1">
-        <v>44562</v>
+        <v>44800</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B85" s="1">
         <v>44562</v>
       </c>
       <c r="C85" s="1">
-        <v>45898</v>
+        <v>45426</v>
       </c>
       <c r="D85" s="1">
         <v>44562</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B86" s="1">
-        <v>44562</v>
+        <v>44611</v>
       </c>
       <c r="C86" s="1">
-        <v>45898</v>
+        <v>44905</v>
       </c>
       <c r="D86" s="1">
-        <v>44562</v>
+        <v>44611</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B87" s="1">
-        <v>44698</v>
-      </c>
-      <c r="C87" s="1">
-        <v>44982</v>
+        <v>44562</v>
       </c>
       <c r="D87" s="1">
-        <v>44698</v>
-      </c>
-      <c r="E87" s="1">
-        <v>44699</v>
+        <v>44562</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2409,16 +2325,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B88" s="1">
-        <v>44562</v>
+        <v>44576</v>
       </c>
       <c r="C88" s="1">
-        <v>45181</v>
+        <v>45106</v>
       </c>
       <c r="D88" s="1">
-        <v>44562</v>
+        <v>44576</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2426,16 +2342,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B89" s="1">
-        <v>44838</v>
+        <v>44562</v>
       </c>
       <c r="C89" s="1">
-        <v>45898</v>
+        <v>45206</v>
       </c>
       <c r="D89" s="1">
-        <v>44838</v>
+        <v>44562</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2443,16 +2359,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B90" s="1">
-        <v>44859</v>
+        <v>44562</v>
       </c>
       <c r="C90" s="1">
-        <v>45397</v>
+        <v>45210</v>
       </c>
       <c r="D90" s="1">
-        <v>44859</v>
+        <v>44562</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2460,47 +2376,41 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B91" s="1">
-        <v>44854</v>
-      </c>
-      <c r="C91" s="1">
-        <v>45686</v>
+        <v>44562</v>
       </c>
       <c r="D91" s="1">
-        <v>44854</v>
+        <v>44562</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B92" s="1">
-        <v>44834</v>
-      </c>
-      <c r="C92" s="1">
-        <v>45285</v>
+        <v>44562</v>
       </c>
       <c r="D92" s="1">
-        <v>44834</v>
+        <v>44562</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B93" s="1">
         <v>44698</v>
       </c>
       <c r="C93" s="1">
-        <v>45898</v>
+        <v>44982</v>
       </c>
       <c r="D93" s="1">
         <v>44698</v>
@@ -2511,33 +2421,30 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="B94" s="1">
-        <v>44698</v>
+        <v>44562</v>
       </c>
       <c r="C94" s="1">
-        <v>45102</v>
+        <v>45181</v>
       </c>
       <c r="D94" s="1">
-        <v>44698</v>
+        <v>44562</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>935</v>
+        <v>876</v>
       </c>
       <c r="B95" s="1">
-        <v>44928</v>
-      </c>
-      <c r="C95" s="1">
-        <v>45898</v>
+        <v>44838</v>
       </c>
       <c r="D95" s="1">
-        <v>44928</v>
+        <v>44838</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2545,16 +2452,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>936</v>
+        <v>877</v>
       </c>
       <c r="B96" s="1">
-        <v>44948</v>
+        <v>44859</v>
       </c>
       <c r="C96" s="1">
-        <v>45134</v>
+        <v>45397</v>
       </c>
       <c r="D96" s="1">
-        <v>44948</v>
+        <v>44859</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2562,16 +2469,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>949</v>
+        <v>878</v>
       </c>
       <c r="B97" s="1">
-        <v>44844</v>
+        <v>44854</v>
       </c>
       <c r="C97" s="1">
-        <v>45281</v>
+        <v>45686</v>
       </c>
       <c r="D97" s="1">
-        <v>44844</v>
+        <v>44854</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2579,16 +2486,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>951</v>
+        <v>880</v>
       </c>
       <c r="B98" s="1">
-        <v>45013</v>
+        <v>44563</v>
       </c>
       <c r="C98" s="1">
-        <v>45785</v>
+        <v>44676</v>
       </c>
       <c r="D98" s="1">
-        <v>45013</v>
+        <v>44563</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2596,19 +2503,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>952</v>
+        <v>881</v>
       </c>
       <c r="B99" s="1">
-        <v>45705</v>
+        <v>44834</v>
       </c>
       <c r="C99" s="1">
-        <v>45894</v>
+        <v>45285</v>
       </c>
       <c r="D99" s="1">
-        <v>45705</v>
-      </c>
-      <c r="E99" s="1">
-        <v>45749</v>
+        <v>44834</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2616,16 +2520,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>953</v>
+        <v>882</v>
       </c>
       <c r="B100" s="1">
-        <v>44919</v>
-      </c>
-      <c r="C100" s="1">
-        <v>45175</v>
+        <v>44698</v>
       </c>
       <c r="D100" s="1">
-        <v>44955</v>
+        <v>44698</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2633,33 +2534,30 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>954</v>
+        <v>883</v>
       </c>
       <c r="B101" s="1">
-        <v>45228</v>
+        <v>44698</v>
       </c>
       <c r="C101" s="1">
-        <v>45369</v>
+        <v>45102</v>
       </c>
       <c r="D101" s="1">
-        <v>45228</v>
+        <v>44698</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B102" s="1">
-        <v>44976</v>
-      </c>
-      <c r="C102" s="1">
-        <v>45844</v>
+        <v>44928</v>
       </c>
       <c r="D102" s="1">
-        <v>44976</v>
+        <v>44928</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2667,16 +2565,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="B103" s="1">
-        <v>44958</v>
+        <v>44948</v>
       </c>
       <c r="C103" s="1">
-        <v>45675</v>
+        <v>45134</v>
       </c>
       <c r="D103" s="1">
-        <v>44958</v>
+        <v>44948</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2684,16 +2582,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B104" s="1">
-        <v>44895</v>
+        <v>44844</v>
       </c>
       <c r="C104" s="1">
-        <v>45747</v>
+        <v>45281</v>
       </c>
       <c r="D104" s="1">
-        <v>44895</v>
+        <v>44844</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2701,50 +2599,50 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>998</v>
+        <v>951</v>
       </c>
       <c r="B105" s="1">
-        <v>45750</v>
+        <v>45013</v>
       </c>
       <c r="C105" s="1">
-        <v>45898</v>
+        <v>45785</v>
       </c>
       <c r="D105" s="1">
-        <v>45750</v>
+        <v>45013</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>1000</v>
+        <v>952</v>
       </c>
       <c r="B106" s="1">
-        <v>45418</v>
+        <v>45705</v>
       </c>
       <c r="C106" s="1">
-        <v>45898</v>
+        <v>45894</v>
       </c>
       <c r="D106" s="1">
-        <v>45418</v>
+        <v>45705</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>1024</v>
+        <v>953</v>
       </c>
       <c r="B107" s="1">
-        <v>45529</v>
+        <v>44919</v>
       </c>
       <c r="C107" s="1">
-        <v>45747</v>
+        <v>45175</v>
       </c>
       <c r="D107" s="1">
-        <v>45529</v>
+        <v>44955</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2752,84 +2650,81 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>1071</v>
+        <v>954</v>
       </c>
       <c r="B108" s="1">
-        <v>45731</v>
+        <v>45228</v>
       </c>
       <c r="C108" s="1">
-        <v>45866</v>
+        <v>45369</v>
       </c>
       <c r="D108" s="1">
-        <v>45731</v>
+        <v>45228</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>1073</v>
+        <v>955</v>
       </c>
       <c r="B109" s="1">
-        <v>45752</v>
+        <v>44976</v>
       </c>
       <c r="C109" s="1">
-        <v>45892</v>
+        <v>45844</v>
       </c>
       <c r="D109" s="1">
-        <v>45752</v>
+        <v>44976</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>1074</v>
+        <v>956</v>
       </c>
       <c r="B110" s="1">
-        <v>45762</v>
+        <v>44958</v>
       </c>
       <c r="C110" s="1">
-        <v>45898</v>
+        <v>45675</v>
       </c>
       <c r="D110" s="1">
-        <v>45762</v>
+        <v>44958</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>1077</v>
+        <v>957</v>
       </c>
       <c r="B111" s="1">
-        <v>45864</v>
+        <v>44895</v>
       </c>
       <c r="C111" s="1">
-        <v>45872</v>
+        <v>45747</v>
       </c>
       <c r="D111" s="1">
-        <v>45864</v>
+        <v>44895</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>1082</v>
+        <v>998</v>
       </c>
       <c r="B112" s="1">
-        <v>45832</v>
-      </c>
-      <c r="C112" s="1">
-        <v>45898</v>
+        <v>45750</v>
       </c>
       <c r="D112" s="1">
-        <v>45832</v>
+        <v>45750</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -2837,18 +2732,167 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
+        <v>1000</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45418</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45418</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1001</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45483</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45483</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>1024</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45529</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45747</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45529</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>1025</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45529</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45529</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>1026</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45529</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45529</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>1071</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45866</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45731</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1073</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45892</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45752</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>1074</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45762</v>
+      </c>
+      <c r="D120" s="1">
+        <v>45762</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>1077</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45864</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45872</v>
+      </c>
+      <c r="D121" s="1">
+        <v>45864</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>1082</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45832</v>
+      </c>
+      <c r="D122" s="1">
+        <v>45832</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123">
         <v>1085</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B123" s="1">
         <v>45743</v>
       </c>
-      <c r="C113" s="1">
-        <v>45898</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="D123" s="1">
         <v>45743</v>
       </c>
-      <c r="F113">
+      <c r="F123">
         <v>0</v>
       </c>
     </row>

--- a/utrecht.xlsx
+++ b/utrecht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hldeb\PycharmProjects\meetjestad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D608D3A-D4CE-4BC3-AA76-097FC9A6168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB8F82-8257-4E9B-81D0-B4E7F10E9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{31E6154C-64D7-4D10-9342-567634A294B6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{56A83861-DB3A-4C0E-BF3C-A09FF0248A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="utrecht" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>start</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>eind</t>
+    <t>Eind</t>
   </si>
   <si>
-    <t>start Utrecht</t>
+    <t>Start Utrecht</t>
   </si>
   <si>
-    <t>eind Utrecht</t>
+    <t>Eind Utrecht</t>
   </si>
   <si>
     <t>Fijnstof</t>
+  </si>
+  <si>
+    <t>Mailchimp</t>
+  </si>
+  <si>
+    <t>Maarssen</t>
+  </si>
+  <si>
+    <t>Geen data</t>
+  </si>
+  <si>
+    <t>Lopik</t>
+  </si>
+  <si>
+    <t>Bilthoven</t>
+  </si>
+  <si>
+    <t>Breukelen</t>
+  </si>
+  <si>
+    <t>Bunnik</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Dubbel</t>
+  </si>
+  <si>
+    <t>Wel data, maar geen longitude en latitude</t>
   </si>
 </sst>
 </file>
@@ -180,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +390,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -521,9 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,22 +942,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7814A70A-B029-4A6B-8F5D-9A477BF0AB93}">
-  <dimension ref="A1:F123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7144C1-376A-4DD8-A0C4-71970B008B0C}">
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.06640625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,8 +976,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>108</v>
       </c>
@@ -946,11 +993,14 @@
       <c r="D2" s="1">
         <v>44733</v>
       </c>
+      <c r="E2" s="1">
+        <v>44855</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>150</v>
       </c>
@@ -963,11 +1013,14 @@
       <c r="D3" s="1">
         <v>45468</v>
       </c>
+      <c r="E3" s="1">
+        <v>45601</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>152</v>
       </c>
@@ -980,11 +1033,17 @@
       <c r="D4" s="1">
         <v>44885</v>
       </c>
+      <c r="E4" s="1">
+        <v>44908</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>153</v>
       </c>
@@ -997,11 +1056,17 @@
       <c r="D5" s="1">
         <v>45469</v>
       </c>
+      <c r="E5" s="1">
+        <v>45470</v>
+      </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>154</v>
       </c>
@@ -1014,11 +1079,17 @@
       <c r="D6" s="1">
         <v>44859</v>
       </c>
+      <c r="E6" s="1">
+        <v>44865</v>
+      </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>156</v>
       </c>
@@ -1031,11 +1102,20 @@
       <c r="D7" s="1">
         <v>44860</v>
       </c>
+      <c r="E7" s="1">
+        <v>45237</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K7" s="2">
+        <v>157</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>159</v>
       </c>
@@ -1048,11 +1128,17 @@
       <c r="D8" s="1">
         <v>45468</v>
       </c>
+      <c r="E8" s="1">
+        <v>45875</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>175</v>
       </c>
@@ -1065,11 +1151,17 @@
       <c r="D9" s="1">
         <v>45094</v>
       </c>
+      <c r="E9" s="1">
+        <v>45305</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>196</v>
       </c>
@@ -1082,11 +1174,14 @@
       <c r="D10" s="1">
         <v>44563</v>
       </c>
+      <c r="E10" s="1">
+        <v>44792</v>
+      </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>254</v>
       </c>
@@ -1099,8 +1194,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>256</v>
       </c>
@@ -1113,11 +1211,17 @@
       <c r="D12" s="1">
         <v>45036</v>
       </c>
+      <c r="E12" s="1">
+        <v>45317</v>
+      </c>
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>257</v>
       </c>
@@ -1130,11 +1234,17 @@
       <c r="D13" s="1">
         <v>45036</v>
       </c>
+      <c r="E13" s="1">
+        <v>45185</v>
+      </c>
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>258</v>
       </c>
@@ -1147,8 +1257,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <v>258</v>
+      </c>
+      <c r="K14" s="2">
+        <v>259</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>260</v>
       </c>
@@ -1161,11 +1280,17 @@
       <c r="D15" s="1">
         <v>44994</v>
       </c>
+      <c r="E15" s="1">
+        <v>45893</v>
+      </c>
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>261</v>
       </c>
@@ -1178,11 +1303,17 @@
       <c r="D16" s="1">
         <v>44978</v>
       </c>
+      <c r="E16" s="1">
+        <v>45730</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>278</v>
       </c>
@@ -1195,11 +1326,14 @@
       <c r="D17" s="1">
         <v>45461</v>
       </c>
+      <c r="E17" s="1">
+        <v>45544</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>418</v>
       </c>
@@ -1212,8 +1346,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <v>418</v>
+      </c>
+      <c r="K18" s="2">
+        <v>419</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>434</v>
       </c>
@@ -1226,11 +1369,17 @@
       <c r="D19" s="1">
         <v>44976</v>
       </c>
+      <c r="E19" s="1">
+        <v>45744</v>
+      </c>
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>586</v>
       </c>
@@ -1243,11 +1392,14 @@
       <c r="D20" s="1">
         <v>45543</v>
       </c>
+      <c r="E20" s="1">
+        <v>45543</v>
+      </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>606</v>
       </c>
@@ -1263,8 +1415,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>639</v>
       </c>
@@ -1277,11 +1432,17 @@
       <c r="D22" s="1">
         <v>45091</v>
       </c>
+      <c r="E22" s="1">
+        <v>45767</v>
+      </c>
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>644</v>
       </c>
@@ -1294,11 +1455,14 @@
       <c r="D23" s="1">
         <v>45008</v>
       </c>
+      <c r="E23" s="1">
+        <v>45362</v>
+      </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>716</v>
       </c>
@@ -1311,8 +1475,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <v>716</v>
+      </c>
+      <c r="K24" s="3">
+        <v>716</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>717</v>
       </c>
@@ -1325,11 +1498,17 @@
       <c r="D25" s="1">
         <v>44958</v>
       </c>
+      <c r="E25" s="1">
+        <v>45245</v>
+      </c>
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>719</v>
       </c>
@@ -1343,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>721</v>
       </c>
@@ -1356,11 +1535,17 @@
       <c r="D27" s="1">
         <v>44592</v>
       </c>
+      <c r="E27" s="1">
+        <v>45756</v>
+      </c>
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>722</v>
       </c>
@@ -1373,8 +1558,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>724</v>
       </c>
@@ -1387,8 +1575,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>725</v>
       </c>
@@ -1401,8 +1592,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>727</v>
       </c>
@@ -1415,11 +1609,14 @@
       <c r="D31" s="1">
         <v>44779</v>
       </c>
+      <c r="E31" s="1">
+        <v>44966</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>728</v>
       </c>
@@ -1432,11 +1629,17 @@
       <c r="D32" s="1">
         <v>44562</v>
       </c>
+      <c r="E32" s="1">
+        <v>45678</v>
+      </c>
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>729</v>
       </c>
@@ -1449,11 +1652,17 @@
       <c r="D33" s="1">
         <v>44562</v>
       </c>
+      <c r="E33" s="1">
+        <v>45292</v>
+      </c>
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>730</v>
       </c>
@@ -1472,8 +1681,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>731</v>
       </c>
@@ -1486,8 +1698,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>732</v>
       </c>
@@ -1500,11 +1715,17 @@
       <c r="D36" s="1">
         <v>45019</v>
       </c>
+      <c r="E36" s="1">
+        <v>45019</v>
+      </c>
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>734</v>
       </c>
@@ -1517,11 +1738,17 @@
       <c r="D37" s="1">
         <v>45060</v>
       </c>
+      <c r="E37" s="1">
+        <v>45747</v>
+      </c>
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>735</v>
       </c>
@@ -1534,11 +1761,17 @@
       <c r="D38" s="1">
         <v>45035</v>
       </c>
+      <c r="E38" s="1">
+        <v>45747</v>
+      </c>
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>736</v>
       </c>
@@ -1551,11 +1784,17 @@
       <c r="D39" s="1">
         <v>45039</v>
       </c>
+      <c r="E39" s="1">
+        <v>45050</v>
+      </c>
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>738</v>
       </c>
@@ -1568,11 +1807,17 @@
       <c r="D40" s="1">
         <v>45704</v>
       </c>
+      <c r="E40" s="1">
+        <v>45749</v>
+      </c>
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>739</v>
       </c>
@@ -1585,11 +1830,17 @@
       <c r="D41" s="1">
         <v>44584</v>
       </c>
+      <c r="E41" s="1">
+        <v>45614</v>
+      </c>
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>742</v>
       </c>
@@ -1602,11 +1853,17 @@
       <c r="D42" s="1">
         <v>44562</v>
       </c>
+      <c r="E42" s="1">
+        <v>45520</v>
+      </c>
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>743</v>
       </c>
@@ -1619,11 +1876,14 @@
       <c r="D43" s="1">
         <v>44585</v>
       </c>
+      <c r="E43" s="1">
+        <v>45253</v>
+      </c>
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>744</v>
       </c>
@@ -1636,11 +1896,23 @@
       <c r="D44" s="1">
         <v>44601</v>
       </c>
+      <c r="E44" s="1">
+        <v>45897</v>
+      </c>
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <v>744</v>
+      </c>
+      <c r="K44" s="2">
+        <v>745</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>747</v>
       </c>
@@ -1653,8 +1925,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>762</v>
       </c>
@@ -1667,8 +1942,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <v>762</v>
+      </c>
+      <c r="K46" s="2">
+        <v>748</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>763</v>
       </c>
@@ -1681,8 +1965,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>765</v>
       </c>
@@ -1695,11 +1982,17 @@
       <c r="D48" s="1">
         <v>44562</v>
       </c>
+      <c r="E48" s="1">
+        <v>45785</v>
+      </c>
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>766</v>
       </c>
@@ -1712,11 +2005,17 @@
       <c r="D49" s="1">
         <v>44585</v>
       </c>
+      <c r="E49" s="1">
+        <v>44592</v>
+      </c>
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>767</v>
       </c>
@@ -1729,11 +2028,17 @@
       <c r="D50" s="1">
         <v>44562</v>
       </c>
+      <c r="E50" s="1">
+        <v>45488</v>
+      </c>
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>768</v>
       </c>
@@ -1746,11 +2051,14 @@
       <c r="D51" s="1">
         <v>44604</v>
       </c>
+      <c r="E51" s="1">
+        <v>44636</v>
+      </c>
       <c r="F51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>769</v>
       </c>
@@ -1763,11 +2071,17 @@
       <c r="D52" s="1">
         <v>44603</v>
       </c>
+      <c r="E52" s="1">
+        <v>45605</v>
+      </c>
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>770</v>
       </c>
@@ -1780,11 +2094,14 @@
       <c r="D53" s="1">
         <v>44563</v>
       </c>
+      <c r="E53" s="1">
+        <v>45224</v>
+      </c>
       <c r="F53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>771</v>
       </c>
@@ -1797,11 +2114,14 @@
       <c r="D54" s="1">
         <v>44576</v>
       </c>
+      <c r="E54" s="1">
+        <v>45666</v>
+      </c>
       <c r="F54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>773</v>
       </c>
@@ -1814,8 +2134,11 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>774</v>
       </c>
@@ -1828,11 +2151,14 @@
       <c r="D56" s="1">
         <v>44586</v>
       </c>
+      <c r="E56" s="1">
+        <v>45083</v>
+      </c>
       <c r="F56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>775</v>
       </c>
@@ -1845,8 +2171,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <v>775</v>
+      </c>
+      <c r="K57" s="2">
+        <v>776</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>777</v>
       </c>
@@ -1859,11 +2194,17 @@
       <c r="D58" s="1">
         <v>44562</v>
       </c>
+      <c r="E58" s="1">
+        <v>45897</v>
+      </c>
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>778</v>
       </c>
@@ -1876,8 +2217,11 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>779</v>
       </c>
@@ -1890,11 +2234,17 @@
       <c r="D60" s="1">
         <v>44573</v>
       </c>
+      <c r="E60" s="1">
+        <v>45239</v>
+      </c>
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>781</v>
       </c>
@@ -1907,11 +2257,14 @@
       <c r="D61" s="1">
         <v>44562</v>
       </c>
+      <c r="E61" s="1">
+        <v>45748</v>
+      </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>782</v>
       </c>
@@ -1924,8 +2277,11 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J62">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>783</v>
       </c>
@@ -1938,11 +2294,17 @@
       <c r="D63" s="1">
         <v>44562</v>
       </c>
+      <c r="E63" s="1">
+        <v>45747</v>
+      </c>
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J63">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>785</v>
       </c>
@@ -1955,11 +2317,20 @@
       <c r="D64" s="1">
         <v>44562</v>
       </c>
+      <c r="E64" s="1">
+        <v>45023</v>
+      </c>
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K64" s="2">
+        <v>784</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>786</v>
       </c>
@@ -1972,11 +2343,17 @@
       <c r="D65" s="1">
         <v>44563</v>
       </c>
+      <c r="E65" s="1">
+        <v>45872</v>
+      </c>
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J65">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>787</v>
       </c>
@@ -1989,11 +2366,17 @@
       <c r="D66" s="1">
         <v>44573</v>
       </c>
+      <c r="E66" s="1">
+        <v>45543</v>
+      </c>
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J66">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>789</v>
       </c>
@@ -2006,8 +2389,17 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J67">
+        <v>789</v>
+      </c>
+      <c r="K67" s="2">
+        <v>788</v>
+      </c>
+      <c r="L67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>790</v>
       </c>
@@ -2020,8 +2412,11 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J68">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>791</v>
       </c>
@@ -2034,8 +2429,11 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J69">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>792</v>
       </c>
@@ -2048,8 +2446,11 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J70">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>793</v>
       </c>
@@ -2062,11 +2463,17 @@
       <c r="D71" s="1">
         <v>44562</v>
       </c>
+      <c r="E71" s="1">
+        <v>45793</v>
+      </c>
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J71">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>794</v>
       </c>
@@ -2079,11 +2486,17 @@
       <c r="D72" s="1">
         <v>44562</v>
       </c>
+      <c r="E72" s="1">
+        <v>45255</v>
+      </c>
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J72">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>796</v>
       </c>
@@ -2096,11 +2509,17 @@
       <c r="D73" s="1">
         <v>44570</v>
       </c>
+      <c r="E73" s="1">
+        <v>44772</v>
+      </c>
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J73">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>832</v>
       </c>
@@ -2113,11 +2532,17 @@
       <c r="D74" s="1">
         <v>44562</v>
       </c>
+      <c r="E74" s="1">
+        <v>45785</v>
+      </c>
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J74">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>833</v>
       </c>
@@ -2130,11 +2555,17 @@
       <c r="D75" s="1">
         <v>44562</v>
       </c>
+      <c r="E75" s="1">
+        <v>45097</v>
+      </c>
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J75">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>834</v>
       </c>
@@ -2147,8 +2578,11 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J76">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>835</v>
       </c>
@@ -2161,11 +2595,14 @@
       <c r="D77" s="1">
         <v>44572</v>
       </c>
+      <c r="E77" s="1">
+        <v>45761</v>
+      </c>
       <c r="F77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>836</v>
       </c>
@@ -2178,11 +2615,17 @@
       <c r="D78" s="1">
         <v>45543</v>
       </c>
+      <c r="E78" s="1">
+        <v>45748</v>
+      </c>
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J78">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>837</v>
       </c>
@@ -2195,8 +2638,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J79">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>838</v>
       </c>
@@ -2209,8 +2655,11 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J80">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>839</v>
       </c>
@@ -2223,11 +2672,14 @@
       <c r="D81" s="1">
         <v>44562</v>
       </c>
+      <c r="E81" s="1">
+        <v>44829</v>
+      </c>
       <c r="F81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>840</v>
       </c>
@@ -2240,8 +2692,11 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J82">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>841</v>
       </c>
@@ -2254,11 +2709,14 @@
       <c r="D83" s="1">
         <v>44562</v>
       </c>
+      <c r="E83" s="1">
+        <v>45774</v>
+      </c>
       <c r="F83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>843</v>
       </c>
@@ -2271,11 +2729,20 @@
       <c r="D84" s="1">
         <v>44800</v>
       </c>
+      <c r="E84" s="1">
+        <v>45731</v>
+      </c>
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K84" s="2">
+        <v>842</v>
+      </c>
+      <c r="L84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>864</v>
       </c>
@@ -2288,11 +2755,17 @@
       <c r="D85" s="1">
         <v>44562</v>
       </c>
+      <c r="E85" s="1">
+        <v>45426</v>
+      </c>
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J85">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>865</v>
       </c>
@@ -2305,11 +2778,17 @@
       <c r="D86" s="1">
         <v>44611</v>
       </c>
+      <c r="E86" s="1">
+        <v>44905</v>
+      </c>
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J86">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>866</v>
       </c>
@@ -2322,8 +2801,11 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J87">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>867</v>
       </c>
@@ -2336,11 +2818,17 @@
       <c r="D88" s="1">
         <v>44576</v>
       </c>
+      <c r="E88" s="1">
+        <v>45106</v>
+      </c>
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J88">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>868</v>
       </c>
@@ -2353,11 +2841,17 @@
       <c r="D89" s="1">
         <v>44562</v>
       </c>
+      <c r="E89" s="1">
+        <v>45206</v>
+      </c>
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J89">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>869</v>
       </c>
@@ -2370,11 +2864,14 @@
       <c r="D90" s="1">
         <v>44562</v>
       </c>
+      <c r="E90" s="1">
+        <v>45210</v>
+      </c>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>870</v>
       </c>
@@ -2387,8 +2884,11 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J91">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>871</v>
       </c>
@@ -2401,8 +2901,11 @@
       <c r="F92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J92">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>873</v>
       </c>
@@ -2415,11 +2918,20 @@
       <c r="D93" s="1">
         <v>44698</v>
       </c>
+      <c r="E93" s="1">
+        <v>44982</v>
+      </c>
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K93" s="2">
+        <v>872</v>
+      </c>
+      <c r="L93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>875</v>
       </c>
@@ -2432,11 +2944,23 @@
       <c r="D94" s="1">
         <v>44562</v>
       </c>
+      <c r="E94" s="1">
+        <v>45181</v>
+      </c>
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J94">
+        <v>875</v>
+      </c>
+      <c r="K94" s="2">
+        <v>874</v>
+      </c>
+      <c r="L94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>876</v>
       </c>
@@ -2449,8 +2973,11 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J95">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>877</v>
       </c>
@@ -2463,11 +2990,17 @@
       <c r="D96" s="1">
         <v>44859</v>
       </c>
+      <c r="E96" s="1">
+        <v>45397</v>
+      </c>
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J96">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>878</v>
       </c>
@@ -2480,11 +3013,20 @@
       <c r="D97" s="1">
         <v>44854</v>
       </c>
+      <c r="E97" s="1">
+        <v>45686</v>
+      </c>
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K97" s="2">
+        <v>879</v>
+      </c>
+      <c r="L97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>880</v>
       </c>
@@ -2497,11 +3039,14 @@
       <c r="D98" s="1">
         <v>44563</v>
       </c>
+      <c r="E98" s="1">
+        <v>44676</v>
+      </c>
       <c r="F98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>881</v>
       </c>
@@ -2514,11 +3059,14 @@
       <c r="D99" s="1">
         <v>44834</v>
       </c>
+      <c r="E99" s="1">
+        <v>45285</v>
+      </c>
       <c r="F99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>882</v>
       </c>
@@ -2531,8 +3079,11 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J100">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>883</v>
       </c>
@@ -2545,11 +3096,14 @@
       <c r="D101" s="1">
         <v>44698</v>
       </c>
+      <c r="E101" s="1">
+        <v>45102</v>
+      </c>
       <c r="F101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>935</v>
       </c>
@@ -2562,8 +3116,11 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J102">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>936</v>
       </c>
@@ -2576,11 +3133,17 @@
       <c r="D103" s="1">
         <v>44948</v>
       </c>
+      <c r="E103" s="1">
+        <v>45134</v>
+      </c>
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J103">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>949</v>
       </c>
@@ -2593,11 +3156,23 @@
       <c r="D104" s="1">
         <v>44844</v>
       </c>
+      <c r="E104" s="1">
+        <v>45281</v>
+      </c>
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J104">
+        <v>936</v>
+      </c>
+      <c r="K104" s="2">
+        <v>937</v>
+      </c>
+      <c r="L104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>951</v>
       </c>
@@ -2610,11 +3185,23 @@
       <c r="D105" s="1">
         <v>45013</v>
       </c>
+      <c r="E105" s="1">
+        <v>45785</v>
+      </c>
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J105">
+        <v>951</v>
+      </c>
+      <c r="K105" s="2">
+        <v>948</v>
+      </c>
+      <c r="L105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>952</v>
       </c>
@@ -2627,11 +3214,14 @@
       <c r="D106" s="1">
         <v>45705</v>
       </c>
+      <c r="E106" s="1">
+        <v>45894</v>
+      </c>
       <c r="F106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>953</v>
       </c>
@@ -2644,11 +3234,17 @@
       <c r="D107" s="1">
         <v>44955</v>
       </c>
+      <c r="E107" s="1">
+        <v>45175</v>
+      </c>
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J107">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>954</v>
       </c>
@@ -2661,11 +3257,17 @@
       <c r="D108" s="1">
         <v>45228</v>
       </c>
+      <c r="E108" s="1">
+        <v>45369</v>
+      </c>
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J108">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>955</v>
       </c>
@@ -2678,11 +3280,17 @@
       <c r="D109" s="1">
         <v>44976</v>
       </c>
+      <c r="E109" s="1">
+        <v>45844</v>
+      </c>
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J109">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>956</v>
       </c>
@@ -2695,11 +3303,17 @@
       <c r="D110" s="1">
         <v>44958</v>
       </c>
+      <c r="E110" s="1">
+        <v>45675</v>
+      </c>
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J110">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>957</v>
       </c>
@@ -2712,11 +3326,17 @@
       <c r="D111" s="1">
         <v>44895</v>
       </c>
+      <c r="E111" s="1">
+        <v>45747</v>
+      </c>
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J111">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>998</v>
       </c>
@@ -2729,8 +3349,17 @@
       <c r="F112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J112">
+        <v>998</v>
+      </c>
+      <c r="K112" s="2">
+        <v>997</v>
+      </c>
+      <c r="L112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1000</v>
       </c>
@@ -2743,8 +3372,11 @@
       <c r="F113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1001</v>
       </c>
@@ -2757,8 +3389,11 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J114">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1024</v>
       </c>
@@ -2771,11 +3406,23 @@
       <c r="D115" s="1">
         <v>45529</v>
       </c>
+      <c r="E115" s="1">
+        <v>45747</v>
+      </c>
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J115">
+        <v>1024</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1025</v>
       </c>
@@ -2788,8 +3435,11 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J116">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1026</v>
       </c>
@@ -2802,8 +3452,11 @@
       <c r="F117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J117">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1071</v>
       </c>
@@ -2816,11 +3469,17 @@
       <c r="D118" s="1">
         <v>45731</v>
       </c>
+      <c r="E118" s="1">
+        <v>45866</v>
+      </c>
       <c r="F118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J118">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1073</v>
       </c>
@@ -2833,11 +3492,20 @@
       <c r="D119" s="1">
         <v>45752</v>
       </c>
+      <c r="E119" s="1">
+        <v>45892</v>
+      </c>
       <c r="F119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K119" s="2">
+        <v>1078</v>
+      </c>
+      <c r="L119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1074</v>
       </c>
@@ -2851,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1077</v>
       </c>
@@ -2864,11 +3532,14 @@
       <c r="D121" s="1">
         <v>45864</v>
       </c>
+      <c r="E121" s="1">
+        <v>45872</v>
+      </c>
       <c r="F121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1082</v>
       </c>
@@ -2881,8 +3552,17 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J122">
+        <v>1082</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1085</v>
       </c>
@@ -2894,6 +3574,15 @@
       </c>
       <c r="F123">
         <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1085</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1084</v>
+      </c>
+      <c r="L123" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/utrecht.xlsx
+++ b/utrecht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hldeb\PycharmProjects\meetjestad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB8F82-8257-4E9B-81D0-B4E7F10E9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C6A585A6-D72F-4641-8085-ABF89321571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{56A83861-DB3A-4C0E-BF3C-A09FF0248A9D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2A448916-CE78-4DC2-8059-01F26DFA5170}"/>
   </bookViews>
   <sheets>
     <sheet name="utrecht" sheetId="1" r:id="rId1"/>
@@ -43,31 +43,31 @@
     <t>Mailchimp</t>
   </si>
   <si>
-    <t>Maarssen</t>
+    <t>Wel data, maar geen longitude en latitude</t>
   </si>
   <si>
     <t>Geen data</t>
   </si>
   <si>
-    <t>Lopik</t>
+    <t>Dubbel</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Bunnik</t>
+  </si>
+  <si>
+    <t>Breukelen</t>
   </si>
   <si>
     <t>Bilthoven</t>
   </si>
   <si>
-    <t>Breukelen</t>
+    <t>Lopik</t>
   </si>
   <si>
-    <t>Bunnik</t>
-  </si>
-  <si>
-    <t>Hengelo</t>
-  </si>
-  <si>
-    <t>Dubbel</t>
-  </si>
-  <si>
-    <t>Wel data, maar geen longitude en latitude</t>
+    <t>Maarssen</t>
   </si>
 </sst>
 </file>
@@ -942,19 +942,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7144C1-376A-4DD8-A0C4-71970B008B0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB556D0-F695-4CFB-90EF-6C69056951F2}">
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J1" sqref="J1:L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -985,10 +985,10 @@
         <v>108</v>
       </c>
       <c r="B2" s="1">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="C2" s="1">
-        <v>44855</v>
+        <v>44995</v>
       </c>
       <c r="D2" s="1">
         <v>44733</v>
@@ -1005,10 +1005,10 @@
         <v>150</v>
       </c>
       <c r="B3" s="1">
-        <v>45468</v>
+        <v>44852</v>
       </c>
       <c r="C3" s="1">
-        <v>45601</v>
+        <v>45613</v>
       </c>
       <c r="D3" s="1">
         <v>45468</v>
@@ -1025,7 +1025,7 @@
         <v>152</v>
       </c>
       <c r="B4" s="1">
-        <v>44885</v>
+        <v>44880</v>
       </c>
       <c r="C4" s="1">
         <v>44908</v>
@@ -1048,7 +1048,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="1">
-        <v>45469</v>
+        <v>45454</v>
       </c>
       <c r="C5" s="1">
         <v>45470</v>
@@ -1071,7 +1071,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="1">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="C6" s="1">
         <v>44865</v>
@@ -1094,7 +1094,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="1">
-        <v>44860</v>
+        <v>44714</v>
       </c>
       <c r="C7" s="1">
         <v>45237</v>
@@ -1112,7 +1112,7 @@
         <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -1120,7 +1120,7 @@
         <v>159</v>
       </c>
       <c r="B8" s="1">
-        <v>45468</v>
+        <v>44714</v>
       </c>
       <c r="C8" s="1">
         <v>45875</v>
@@ -1143,10 +1143,10 @@
         <v>175</v>
       </c>
       <c r="B9" s="1">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="C9" s="1">
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="D9" s="1">
         <v>45094</v>
@@ -1166,7 +1166,7 @@
         <v>196</v>
       </c>
       <c r="B10" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="1">
         <v>44792</v>
@@ -1186,7 +1186,7 @@
         <v>254</v>
       </c>
       <c r="B11" s="1">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="D11" s="1">
         <v>45097</v>
@@ -1206,7 +1206,7 @@
         <v>45036</v>
       </c>
       <c r="C12" s="1">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="D12" s="1">
         <v>45036</v>
@@ -1274,14 +1274,8 @@
       <c r="B15" s="1">
         <v>44994</v>
       </c>
-      <c r="C15" s="1">
-        <v>45893</v>
-      </c>
       <c r="D15" s="1">
         <v>44994</v>
-      </c>
-      <c r="E15" s="1">
-        <v>45893</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1295,7 +1289,7 @@
         <v>261</v>
       </c>
       <c r="B16" s="1">
-        <v>44978</v>
+        <v>44977</v>
       </c>
       <c r="C16" s="1">
         <v>45730</v>
@@ -1318,10 +1312,10 @@
         <v>278</v>
       </c>
       <c r="B17" s="1">
-        <v>45461</v>
+        <v>45456</v>
       </c>
       <c r="C17" s="1">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="D17" s="1">
         <v>45461</v>
@@ -1353,7 +1347,7 @@
         <v>419</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -1364,7 +1358,7 @@
         <v>44976</v>
       </c>
       <c r="C19" s="1">
-        <v>45744</v>
+        <v>45755</v>
       </c>
       <c r="D19" s="1">
         <v>44976</v>
@@ -1384,7 +1378,7 @@
         <v>586</v>
       </c>
       <c r="B20" s="1">
-        <v>45543</v>
+        <v>45454</v>
       </c>
       <c r="C20" s="1">
         <v>45543</v>
@@ -1424,7 +1418,7 @@
         <v>639</v>
       </c>
       <c r="B22" s="1">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="C22" s="1">
         <v>45767</v>
@@ -1450,7 +1444,7 @@
         <v>45008</v>
       </c>
       <c r="C23" s="1">
-        <v>45362</v>
+        <v>45699</v>
       </c>
       <c r="D23" s="1">
         <v>45008</v>
@@ -1482,7 +1476,7 @@
         <v>716</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -1493,7 +1487,7 @@
         <v>44958</v>
       </c>
       <c r="C25" s="1">
-        <v>45245</v>
+        <v>45247</v>
       </c>
       <c r="D25" s="1">
         <v>44958</v>
@@ -1530,7 +1524,7 @@
         <v>44592</v>
       </c>
       <c r="C27" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="D27" s="1">
         <v>44592</v>
@@ -1567,7 +1561,7 @@
         <v>724</v>
       </c>
       <c r="B29" s="1">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D29" s="1">
         <v>44599</v>
@@ -1584,7 +1578,7 @@
         <v>725</v>
       </c>
       <c r="B30" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="D30" s="1">
         <v>44563</v>
@@ -1667,7 +1661,7 @@
         <v>730</v>
       </c>
       <c r="B34" s="1">
-        <v>44940</v>
+        <v>44641</v>
       </c>
       <c r="C34" s="1">
         <v>45893</v>
@@ -1707,7 +1701,7 @@
         <v>732</v>
       </c>
       <c r="B36" s="1">
-        <v>45019</v>
+        <v>44944</v>
       </c>
       <c r="C36" s="1">
         <v>45019</v>
@@ -1871,7 +1865,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1">
-        <v>45253</v>
+        <v>45687</v>
       </c>
       <c r="D43" s="1">
         <v>44585</v>
@@ -1888,17 +1882,11 @@
         <v>744</v>
       </c>
       <c r="B44" s="1">
-        <v>44601</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45897</v>
+        <v>44600</v>
       </c>
       <c r="D44" s="1">
         <v>44601</v>
       </c>
-      <c r="E44" s="1">
-        <v>45897</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
@@ -1909,7 +1897,7 @@
         <v>745</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -2086,7 +2074,7 @@
         <v>770</v>
       </c>
       <c r="B53" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C53" s="1">
         <v>45224</v>
@@ -2106,7 +2094,7 @@
         <v>771</v>
       </c>
       <c r="B54" s="1">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="C54" s="1">
         <v>45666</v>
@@ -2146,7 +2134,7 @@
         <v>44586</v>
       </c>
       <c r="C56" s="1">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="D56" s="1">
         <v>44586</v>
@@ -2163,7 +2151,7 @@
         <v>775</v>
       </c>
       <c r="B57" s="1">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="D57" s="1">
         <v>44589</v>
@@ -2178,7 +2166,7 @@
         <v>776</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
@@ -2188,14 +2176,8 @@
       <c r="B58" s="1">
         <v>44562</v>
       </c>
-      <c r="C58" s="1">
-        <v>45897</v>
-      </c>
       <c r="D58" s="1">
         <v>44562</v>
-      </c>
-      <c r="E58" s="1">
-        <v>45897</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2226,7 +2208,7 @@
         <v>779</v>
       </c>
       <c r="B60" s="1">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="C60" s="1">
         <v>45239</v>
@@ -2252,7 +2234,7 @@
         <v>44562</v>
       </c>
       <c r="C61" s="1">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="D61" s="1">
         <v>44562</v>
@@ -2327,7 +2309,7 @@
         <v>784</v>
       </c>
       <c r="L64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
@@ -2335,7 +2317,7 @@
         <v>786</v>
       </c>
       <c r="B65" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C65" s="1">
         <v>45872</v>
@@ -2421,7 +2403,7 @@
         <v>791</v>
       </c>
       <c r="B69" s="1">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="D69" s="1">
         <v>44578</v>
@@ -2501,10 +2483,10 @@
         <v>796</v>
       </c>
       <c r="B73" s="1">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="C73" s="1">
-        <v>44772</v>
+        <v>44774</v>
       </c>
       <c r="D73" s="1">
         <v>44570</v>
@@ -2590,7 +2572,7 @@
         <v>44572</v>
       </c>
       <c r="C77" s="1">
-        <v>45761</v>
+        <v>45845</v>
       </c>
       <c r="D77" s="1">
         <v>44572</v>
@@ -2610,7 +2592,7 @@
         <v>45543</v>
       </c>
       <c r="C78" s="1">
-        <v>45748</v>
+        <v>45845</v>
       </c>
       <c r="D78" s="1">
         <v>45543</v>
@@ -2667,7 +2649,7 @@
         <v>44562</v>
       </c>
       <c r="C81" s="1">
-        <v>44829</v>
+        <v>44939</v>
       </c>
       <c r="D81" s="1">
         <v>44562</v>
@@ -2739,7 +2721,7 @@
         <v>842</v>
       </c>
       <c r="L84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
@@ -2859,7 +2841,7 @@
         <v>44562</v>
       </c>
       <c r="C90" s="1">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="D90" s="1">
         <v>44562</v>
@@ -2910,17 +2892,11 @@
         <v>873</v>
       </c>
       <c r="B93" s="1">
-        <v>44698</v>
-      </c>
-      <c r="C93" s="1">
-        <v>44982</v>
+        <v>44697</v>
       </c>
       <c r="D93" s="1">
         <v>44698</v>
       </c>
-      <c r="E93" s="1">
-        <v>44982</v>
-      </c>
       <c r="F93">
         <v>0</v>
       </c>
@@ -2928,7 +2904,7 @@
         <v>872</v>
       </c>
       <c r="L93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
@@ -2965,7 +2941,7 @@
         <v>876</v>
       </c>
       <c r="B95" s="1">
-        <v>44838</v>
+        <v>44837</v>
       </c>
       <c r="D95" s="1">
         <v>44838</v>
@@ -3008,7 +2984,7 @@
         <v>44854</v>
       </c>
       <c r="C97" s="1">
-        <v>45686</v>
+        <v>45693</v>
       </c>
       <c r="D97" s="1">
         <v>44854</v>
@@ -3031,10 +3007,10 @@
         <v>880</v>
       </c>
       <c r="B98" s="1">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C98" s="1">
-        <v>44676</v>
+        <v>44813</v>
       </c>
       <c r="D98" s="1">
         <v>44563</v>
@@ -3054,7 +3030,7 @@
         <v>44834</v>
       </c>
       <c r="C99" s="1">
-        <v>45285</v>
+        <v>45287</v>
       </c>
       <c r="D99" s="1">
         <v>44834</v>
@@ -3071,7 +3047,7 @@
         <v>882</v>
       </c>
       <c r="B100" s="1">
-        <v>44698</v>
+        <v>44697</v>
       </c>
       <c r="D100" s="1">
         <v>44698</v>
@@ -3088,7 +3064,7 @@
         <v>883</v>
       </c>
       <c r="B101" s="1">
-        <v>44698</v>
+        <v>44697</v>
       </c>
       <c r="C101" s="1">
         <v>45102</v>
@@ -3177,7 +3153,7 @@
         <v>951</v>
       </c>
       <c r="B105" s="1">
-        <v>45013</v>
+        <v>45012</v>
       </c>
       <c r="C105" s="1">
         <v>45785</v>
@@ -3206,16 +3182,10 @@
         <v>952</v>
       </c>
       <c r="B106" s="1">
-        <v>45705</v>
-      </c>
-      <c r="C106" s="1">
-        <v>45894</v>
+        <v>44859</v>
       </c>
       <c r="D106" s="1">
         <v>45705</v>
-      </c>
-      <c r="E106" s="1">
-        <v>45894</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3226,7 +3196,7 @@
         <v>953</v>
       </c>
       <c r="B107" s="1">
-        <v>44919</v>
+        <v>44915</v>
       </c>
       <c r="C107" s="1">
         <v>45175</v>
@@ -3249,7 +3219,7 @@
         <v>954</v>
       </c>
       <c r="B108" s="1">
-        <v>45228</v>
+        <v>44949</v>
       </c>
       <c r="C108" s="1">
         <v>45369</v>
@@ -3272,7 +3242,7 @@
         <v>955</v>
       </c>
       <c r="B109" s="1">
-        <v>44976</v>
+        <v>44914</v>
       </c>
       <c r="C109" s="1">
         <v>45844</v>
@@ -3295,7 +3265,7 @@
         <v>956</v>
       </c>
       <c r="B110" s="1">
-        <v>44958</v>
+        <v>44893</v>
       </c>
       <c r="C110" s="1">
         <v>45675</v>
@@ -3318,7 +3288,7 @@
         <v>957</v>
       </c>
       <c r="B111" s="1">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C111" s="1">
         <v>45747</v>
@@ -3341,7 +3311,7 @@
         <v>998</v>
       </c>
       <c r="B112" s="1">
-        <v>45750</v>
+        <v>45749</v>
       </c>
       <c r="D112" s="1">
         <v>45750</v>
@@ -3419,7 +3389,7 @@
         <v>1022</v>
       </c>
       <c r="L115" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
@@ -3463,14 +3433,8 @@
       <c r="B118" s="1">
         <v>45731</v>
       </c>
-      <c r="C118" s="1">
-        <v>45866</v>
-      </c>
       <c r="D118" s="1">
         <v>45731</v>
-      </c>
-      <c r="E118" s="1">
-        <v>45866</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3526,14 +3490,8 @@
       <c r="B121" s="1">
         <v>45864</v>
       </c>
-      <c r="C121" s="1">
-        <v>45872</v>
-      </c>
       <c r="D121" s="1">
         <v>45864</v>
-      </c>
-      <c r="E121" s="1">
-        <v>45872</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3582,7 +3540,7 @@
         <v>1084</v>
       </c>
       <c r="L123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/utrecht.xlsx
+++ b/utrecht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hldeb\PycharmProjects\meetjestad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C6A585A6-D72F-4641-8085-ABF89321571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A63A4B0-EE10-41FA-A128-C772ED54849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2A448916-CE78-4DC2-8059-01F26DFA5170}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{063E4B95-7626-4A8E-B256-F67A4AB3E4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="utrecht" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Maarssen</t>
+  </si>
+  <si>
+    <t>De Bilt</t>
   </si>
 </sst>
 </file>
@@ -942,19 +945,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB556D0-F695-4CFB-90EF-6C69056951F2}">
-  <dimension ref="A1:L123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98003D5-2E2F-4FA8-A653-0ADF3AC6805A}">
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L123"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -1062,9 +1065,6 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>154</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1108,11 +1108,8 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
-        <v>157</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
+      <c r="J7">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -1137,6 +1134,12 @@
       <c r="J8">
         <v>159</v>
       </c>
+      <c r="K8" s="2">
+        <v>157</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -1277,6 +1280,9 @@
       <c r="D15" s="1">
         <v>44994</v>
       </c>
+      <c r="E15" s="1">
+        <v>45893</v>
+      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -1392,111 +1398,111 @@
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="K20" s="2">
+        <v>606</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="B21" s="1">
-        <v>44562</v>
+        <v>45089</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45767</v>
       </c>
       <c r="D21" s="1">
-        <v>44895</v>
+        <v>45091</v>
       </c>
       <c r="E21" s="1">
-        <v>45406</v>
+        <v>45767</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>606</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B22" s="1">
-        <v>45089</v>
+        <v>45008</v>
       </c>
       <c r="C22" s="1">
-        <v>45767</v>
+        <v>45699</v>
       </c>
       <c r="D22" s="1">
-        <v>45091</v>
+        <v>45008</v>
       </c>
       <c r="E22" s="1">
-        <v>45767</v>
+        <v>45362</v>
       </c>
       <c r="F22">
         <v>0</v>
-      </c>
-      <c r="J22">
-        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1">
-        <v>45008</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45699</v>
+        <v>44562</v>
       </c>
       <c r="D23" s="1">
-        <v>45008</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45362</v>
+        <v>44562</v>
       </c>
       <c r="F23">
         <v>0</v>
+      </c>
+      <c r="J23">
+        <v>716</v>
+      </c>
+      <c r="K23" s="3">
+        <v>716</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B24" s="1">
-        <v>44562</v>
+        <v>44958</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45247</v>
       </c>
       <c r="D24" s="1">
-        <v>44562</v>
+        <v>44958</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45245</v>
       </c>
       <c r="F24">
         <v>0</v>
-      </c>
-      <c r="J24">
-        <v>716</v>
-      </c>
-      <c r="K24" s="3">
-        <v>716</v>
-      </c>
-      <c r="L24" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B25" s="1">
-        <v>44958</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45247</v>
+        <v>44562</v>
       </c>
       <c r="D25" s="1">
-        <v>44958</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45245</v>
+        <v>44562</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>719</v>
@@ -1504,233 +1510,242 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B26" s="1">
-        <v>44562</v>
+        <v>44592</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45757</v>
       </c>
       <c r="D26" s="1">
-        <v>44562</v>
+        <v>44592</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45756</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
+      <c r="J26">
+        <v>721</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B27" s="1">
-        <v>44592</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45757</v>
+        <v>44562</v>
       </c>
       <c r="D27" s="1">
-        <v>44592</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45756</v>
+        <v>44562</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B28" s="1">
-        <v>44562</v>
+        <v>44598</v>
       </c>
       <c r="D28" s="1">
-        <v>44562</v>
+        <v>44599</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B29" s="1">
-        <v>44598</v>
+        <v>44562</v>
       </c>
       <c r="D29" s="1">
-        <v>44599</v>
+        <v>44563</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B30" s="1">
-        <v>44562</v>
+        <v>44779</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44966</v>
       </c>
       <c r="D30" s="1">
-        <v>44563</v>
+        <v>44779</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44966</v>
       </c>
       <c r="F30">
         <v>0</v>
-      </c>
-      <c r="J30">
-        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B31" s="1">
-        <v>44779</v>
+        <v>44562</v>
       </c>
       <c r="C31" s="1">
-        <v>44966</v>
+        <v>45678</v>
       </c>
       <c r="D31" s="1">
-        <v>44779</v>
+        <v>44562</v>
       </c>
       <c r="E31" s="1">
-        <v>44966</v>
+        <v>45678</v>
       </c>
       <c r="F31">
         <v>0</v>
+      </c>
+      <c r="J31">
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B32" s="1">
         <v>44562</v>
       </c>
       <c r="C32" s="1">
-        <v>45678</v>
+        <v>45292</v>
       </c>
       <c r="D32" s="1">
         <v>44562</v>
       </c>
       <c r="E32" s="1">
-        <v>45678</v>
+        <v>45292</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B33" s="1">
-        <v>44562</v>
+        <v>44641</v>
       </c>
       <c r="C33" s="1">
-        <v>45292</v>
+        <v>45893</v>
       </c>
       <c r="D33" s="1">
-        <v>44562</v>
+        <v>44940</v>
       </c>
       <c r="E33" s="1">
-        <v>45292</v>
+        <v>45893</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B34" s="1">
-        <v>44641</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45893</v>
+        <v>44936</v>
       </c>
       <c r="D34" s="1">
-        <v>44940</v>
-      </c>
-      <c r="E34" s="1">
-        <v>44941</v>
+        <v>44936</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B35" s="1">
-        <v>44936</v>
+        <v>44944</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45019</v>
       </c>
       <c r="D35" s="1">
-        <v>44936</v>
+        <v>45019</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45019</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B36" s="1">
-        <v>44944</v>
+        <v>45060</v>
       </c>
       <c r="C36" s="1">
-        <v>45019</v>
+        <v>45747</v>
       </c>
       <c r="D36" s="1">
-        <v>45019</v>
+        <v>45060</v>
       </c>
       <c r="E36" s="1">
-        <v>45019</v>
+        <v>45747</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B37" s="1">
-        <v>45060</v>
+        <v>45035</v>
       </c>
       <c r="C37" s="1">
         <v>45747</v>
       </c>
       <c r="D37" s="1">
-        <v>45060</v>
+        <v>45035</v>
       </c>
       <c r="E37" s="1">
         <v>45747</v>
@@ -1742,167 +1757,176 @@
         <v>734</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38">
+        <v>736</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45039</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45050</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45039</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45050</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>735</v>
       </c>
-      <c r="B38" s="1">
-        <v>45035</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45747</v>
-      </c>
-      <c r="D38" s="1">
-        <v>45035</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45747</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B39" s="1">
-        <v>45039</v>
+        <v>45704</v>
       </c>
       <c r="C39" s="1">
-        <v>45050</v>
+        <v>45749</v>
       </c>
       <c r="D39" s="1">
-        <v>45039</v>
+        <v>45704</v>
       </c>
       <c r="E39" s="1">
-        <v>45050</v>
+        <v>45749</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B40" s="1">
-        <v>45704</v>
+        <v>44584</v>
       </c>
       <c r="C40" s="1">
-        <v>45749</v>
+        <v>45614</v>
       </c>
       <c r="D40" s="1">
-        <v>45704</v>
+        <v>44584</v>
       </c>
       <c r="E40" s="1">
-        <v>45749</v>
+        <v>45614</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B41" s="1">
-        <v>44584</v>
+        <v>44562</v>
       </c>
       <c r="C41" s="1">
-        <v>45614</v>
+        <v>45520</v>
       </c>
       <c r="D41" s="1">
-        <v>44584</v>
+        <v>44562</v>
       </c>
       <c r="E41" s="1">
-        <v>45614</v>
+        <v>45520</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B42" s="1">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="C42" s="1">
-        <v>45520</v>
+        <v>45687</v>
       </c>
       <c r="D42" s="1">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="E42" s="1">
-        <v>45520</v>
+        <v>45253</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B43" s="1">
-        <v>44585</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45687</v>
+        <v>44600</v>
       </c>
       <c r="D43" s="1">
-        <v>44585</v>
+        <v>44601</v>
       </c>
       <c r="E43" s="1">
-        <v>45253</v>
+        <v>45897</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <v>744</v>
+      </c>
+      <c r="K43" s="2">
+        <v>745</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B44" s="1">
-        <v>44600</v>
+        <v>44562</v>
       </c>
       <c r="D44" s="1">
-        <v>44601</v>
+        <v>44562</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="K44" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="L44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="M44" s="2">
+        <v>762</v>
+      </c>
+      <c r="N44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="B45" s="1">
         <v>44562</v>
@@ -1914,133 +1938,136 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B46" s="1">
-        <v>44910</v>
+        <v>44562</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45785</v>
       </c>
       <c r="D46" s="1">
-        <v>44910</v>
+        <v>44562</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45785</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>762</v>
-      </c>
-      <c r="K46" s="2">
-        <v>748</v>
-      </c>
-      <c r="L46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B47" s="1">
-        <v>44562</v>
+        <v>44585</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44592</v>
       </c>
       <c r="D47" s="1">
-        <v>44562</v>
+        <v>44585</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44592</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B48" s="1">
         <v>44562</v>
       </c>
       <c r="C48" s="1">
-        <v>45785</v>
+        <v>45488</v>
       </c>
       <c r="D48" s="1">
         <v>44562</v>
       </c>
       <c r="E48" s="1">
-        <v>45785</v>
+        <v>45488</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B49" s="1">
-        <v>44585</v>
+        <v>44604</v>
       </c>
       <c r="C49" s="1">
-        <v>44592</v>
+        <v>44636</v>
       </c>
       <c r="D49" s="1">
-        <v>44585</v>
+        <v>44604</v>
       </c>
       <c r="E49" s="1">
-        <v>44592</v>
+        <v>44636</v>
       </c>
       <c r="F49">
         <v>0</v>
-      </c>
-      <c r="J49">
-        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B50" s="1">
-        <v>44562</v>
+        <v>44603</v>
       </c>
       <c r="C50" s="1">
-        <v>45488</v>
+        <v>45605</v>
       </c>
       <c r="D50" s="1">
-        <v>44562</v>
+        <v>44603</v>
       </c>
       <c r="E50" s="1">
-        <v>45488</v>
+        <v>45605</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B51" s="1">
-        <v>44604</v>
+        <v>44562</v>
       </c>
       <c r="C51" s="1">
-        <v>44636</v>
+        <v>45224</v>
       </c>
       <c r="D51" s="1">
-        <v>44604</v>
+        <v>44563</v>
       </c>
       <c r="E51" s="1">
-        <v>44636</v>
+        <v>45224</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2048,62 +2075,56 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B52" s="1">
-        <v>44603</v>
+        <v>44562</v>
       </c>
       <c r="C52" s="1">
-        <v>45605</v>
+        <v>45666</v>
       </c>
       <c r="D52" s="1">
-        <v>44603</v>
+        <v>44576</v>
       </c>
       <c r="E52" s="1">
-        <v>45605</v>
+        <v>45666</v>
       </c>
       <c r="F52">
         <v>0</v>
-      </c>
-      <c r="J52">
-        <v>769</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B53" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C53" s="1">
-        <v>45224</v>
+        <v>44586</v>
       </c>
       <c r="D53" s="1">
-        <v>44563</v>
-      </c>
-      <c r="E53" s="1">
-        <v>45224</v>
+        <v>44586</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B54" s="1">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="C54" s="1">
-        <v>45666</v>
+        <v>45085</v>
       </c>
       <c r="D54" s="1">
-        <v>44576</v>
+        <v>44586</v>
       </c>
       <c r="E54" s="1">
-        <v>45666</v>
+        <v>45083</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2111,279 +2132,279 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B55" s="1">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="D55" s="1">
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="J55">
-        <v>773</v>
+        <v>775</v>
+      </c>
+      <c r="K55" s="2">
+        <v>776</v>
+      </c>
+      <c r="L55" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B56" s="1">
-        <v>44586</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45085</v>
+        <v>44562</v>
       </c>
       <c r="D56" s="1">
-        <v>44586</v>
+        <v>44562</v>
       </c>
       <c r="E56" s="1">
-        <v>45083</v>
+        <v>45897</v>
       </c>
       <c r="F56">
         <v>0</v>
+      </c>
+      <c r="J56">
+        <v>777</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B57" s="1">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="D57" s="1">
-        <v>44589</v>
+        <v>44562</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>775</v>
-      </c>
-      <c r="K57" s="2">
-        <v>776</v>
-      </c>
-      <c r="L57" t="s">
-        <v>11</v>
+        <v>778</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B58" s="1">
-        <v>44562</v>
+        <v>44572</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45239</v>
       </c>
       <c r="D58" s="1">
-        <v>44562</v>
+        <v>44573</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45239</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B59" s="1">
         <v>44562</v>
       </c>
+      <c r="C59" s="1">
+        <v>45755</v>
+      </c>
       <c r="D59" s="1">
         <v>44562</v>
       </c>
+      <c r="E59" s="1">
+        <v>45748</v>
+      </c>
       <c r="F59">
         <v>0</v>
-      </c>
-      <c r="J59">
-        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B60" s="1">
-        <v>44572</v>
-      </c>
-      <c r="C60" s="1">
-        <v>45239</v>
+        <v>44562</v>
       </c>
       <c r="D60" s="1">
-        <v>44573</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45239</v>
+        <v>44562</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B61" s="1">
         <v>44562</v>
       </c>
       <c r="C61" s="1">
-        <v>45755</v>
+        <v>45747</v>
       </c>
       <c r="D61" s="1">
         <v>44562</v>
       </c>
       <c r="E61" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F61">
         <v>0</v>
+      </c>
+      <c r="J61">
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B62" s="1">
         <v>44562</v>
       </c>
+      <c r="C62" s="1">
+        <v>45023</v>
+      </c>
       <c r="D62" s="1">
         <v>44562</v>
       </c>
+      <c r="E62" s="1">
+        <v>45023</v>
+      </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>782</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>784</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B63" s="1">
         <v>44562</v>
       </c>
       <c r="C63" s="1">
-        <v>45747</v>
+        <v>45872</v>
       </c>
       <c r="D63" s="1">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="E63" s="1">
-        <v>45747</v>
+        <v>45872</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B64" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="C64" s="1">
-        <v>45023</v>
+        <v>45543</v>
       </c>
       <c r="D64" s="1">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="E64" s="1">
-        <v>45023</v>
+        <v>45543</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>784</v>
-      </c>
-      <c r="L64" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B65" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45872</v>
+        <v>44574</v>
       </c>
       <c r="D65" s="1">
-        <v>44563</v>
-      </c>
-      <c r="E65" s="1">
-        <v>45872</v>
+        <v>44574</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>786</v>
+        <v>789</v>
+      </c>
+      <c r="K65" s="2">
+        <v>788</v>
+      </c>
+      <c r="L65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B66" s="1">
-        <v>44573</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45543</v>
+        <v>44562</v>
       </c>
       <c r="D66" s="1">
-        <v>44573</v>
-      </c>
-      <c r="E66" s="1">
-        <v>45543</v>
+        <v>44562</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B67" s="1">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="D67" s="1">
-        <v>44574</v>
+        <v>44578</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>789</v>
-      </c>
-      <c r="K67" s="2">
-        <v>788</v>
-      </c>
-      <c r="L67" t="s">
-        <v>8</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B68" s="1">
         <v>44562</v>
@@ -2395,1151 +2416,1107 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B69" s="1">
         <v>44562</v>
       </c>
+      <c r="C69" s="1">
+        <v>45793</v>
+      </c>
       <c r="D69" s="1">
-        <v>44578</v>
+        <v>44562</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45793</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B70" s="1">
         <v>44562</v>
       </c>
+      <c r="C70" s="1">
+        <v>45255</v>
+      </c>
       <c r="D70" s="1">
         <v>44562</v>
       </c>
+      <c r="E70" s="1">
+        <v>45255</v>
+      </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B71" s="1">
-        <v>44562</v>
+        <v>44568</v>
       </c>
       <c r="C71" s="1">
-        <v>45793</v>
+        <v>44774</v>
       </c>
       <c r="D71" s="1">
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="E71" s="1">
-        <v>45793</v>
+        <v>44772</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>794</v>
+        <v>832</v>
       </c>
       <c r="B72" s="1">
         <v>44562</v>
       </c>
       <c r="C72" s="1">
-        <v>45255</v>
+        <v>45785</v>
       </c>
       <c r="D72" s="1">
         <v>44562</v>
       </c>
       <c r="E72" s="1">
-        <v>45255</v>
+        <v>45785</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>794</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="B73" s="1">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="C73" s="1">
-        <v>44774</v>
+        <v>45097</v>
       </c>
       <c r="D73" s="1">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="E73" s="1">
-        <v>44772</v>
+        <v>45097</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>796</v>
+        <v>833</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B74" s="1">
         <v>44562</v>
       </c>
-      <c r="C74" s="1">
-        <v>45785</v>
-      </c>
       <c r="D74" s="1">
         <v>44562</v>
       </c>
-      <c r="E74" s="1">
-        <v>45785</v>
-      </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B75" s="1">
-        <v>44562</v>
+        <v>44572</v>
       </c>
       <c r="C75" s="1">
-        <v>45097</v>
+        <v>45845</v>
       </c>
       <c r="D75" s="1">
-        <v>44562</v>
+        <v>44572</v>
       </c>
       <c r="E75" s="1">
-        <v>45097</v>
+        <v>45761</v>
       </c>
       <c r="F75">
         <v>0</v>
-      </c>
-      <c r="J75">
-        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B76" s="1">
-        <v>44562</v>
+        <v>45543</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45845</v>
       </c>
       <c r="D76" s="1">
-        <v>44562</v>
+        <v>45543</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45748</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B77" s="1">
-        <v>44572</v>
-      </c>
-      <c r="C77" s="1">
-        <v>45845</v>
+        <v>44849</v>
       </c>
       <c r="D77" s="1">
-        <v>44572</v>
-      </c>
-      <c r="E77" s="1">
-        <v>45761</v>
+        <v>44849</v>
       </c>
       <c r="F77">
         <v>0</v>
+      </c>
+      <c r="J77">
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B78" s="1">
-        <v>45543</v>
-      </c>
-      <c r="C78" s="1">
-        <v>45845</v>
+        <v>45207</v>
       </c>
       <c r="D78" s="1">
-        <v>45543</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45748</v>
+        <v>45207</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B79" s="1">
-        <v>44849</v>
+        <v>44562</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44939</v>
       </c>
       <c r="D79" s="1">
-        <v>44849</v>
+        <v>44562</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44829</v>
       </c>
       <c r="F79">
         <v>0</v>
-      </c>
-      <c r="J79">
-        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B80" s="1">
-        <v>45207</v>
+        <v>44568</v>
       </c>
       <c r="D80" s="1">
-        <v>45207</v>
+        <v>44568</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B81" s="1">
         <v>44562</v>
       </c>
       <c r="C81" s="1">
-        <v>44939</v>
+        <v>45774</v>
       </c>
       <c r="D81" s="1">
         <v>44562</v>
       </c>
       <c r="E81" s="1">
-        <v>44829</v>
+        <v>45774</v>
       </c>
       <c r="F81">
         <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>842</v>
+      </c>
+      <c r="L81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B82" s="1">
-        <v>44568</v>
+        <v>44562</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45731</v>
       </c>
       <c r="D82" s="1">
-        <v>44568</v>
+        <v>44800</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45731</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="B83" s="1">
         <v>44562</v>
       </c>
       <c r="C83" s="1">
-        <v>45774</v>
+        <v>45426</v>
       </c>
       <c r="D83" s="1">
         <v>44562</v>
       </c>
       <c r="E83" s="1">
-        <v>45774</v>
+        <v>45426</v>
       </c>
       <c r="F83">
         <v>0</v>
+      </c>
+      <c r="J83">
+        <v>864</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="B84" s="1">
-        <v>44562</v>
+        <v>44611</v>
       </c>
       <c r="C84" s="1">
-        <v>45731</v>
+        <v>44905</v>
       </c>
       <c r="D84" s="1">
-        <v>44800</v>
+        <v>44611</v>
       </c>
       <c r="E84" s="1">
-        <v>45731</v>
+        <v>44905</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
-        <v>842</v>
-      </c>
-      <c r="L84" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B85" s="1">
         <v>44562</v>
       </c>
-      <c r="C85" s="1">
-        <v>45426</v>
-      </c>
       <c r="D85" s="1">
         <v>44562</v>
       </c>
-      <c r="E85" s="1">
-        <v>45426</v>
-      </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>843</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B86" s="1">
-        <v>44611</v>
+        <v>44576</v>
       </c>
       <c r="C86" s="1">
-        <v>44905</v>
+        <v>45106</v>
       </c>
       <c r="D86" s="1">
-        <v>44611</v>
+        <v>44576</v>
       </c>
       <c r="E86" s="1">
-        <v>44905</v>
+        <v>45106</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B87" s="1">
         <v>44562</v>
       </c>
+      <c r="C87" s="1">
+        <v>45206</v>
+      </c>
       <c r="D87" s="1">
         <v>44562</v>
       </c>
+      <c r="E87" s="1">
+        <v>45206</v>
+      </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B88" s="1">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="C88" s="1">
-        <v>45106</v>
+        <v>45215</v>
       </c>
       <c r="D88" s="1">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="E88" s="1">
-        <v>45106</v>
+        <v>45210</v>
       </c>
       <c r="F88">
         <v>0</v>
-      </c>
-      <c r="J88">
-        <v>867</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B89" s="1">
         <v>44562</v>
       </c>
-      <c r="C89" s="1">
-        <v>45206</v>
-      </c>
       <c r="D89" s="1">
         <v>44562</v>
       </c>
-      <c r="E89" s="1">
-        <v>45206</v>
-      </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B90" s="1">
         <v>44562</v>
       </c>
-      <c r="C90" s="1">
-        <v>45215</v>
-      </c>
       <c r="D90" s="1">
         <v>44562</v>
       </c>
-      <c r="E90" s="1">
-        <v>45210</v>
-      </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B91" s="1">
-        <v>44562</v>
+        <v>44697</v>
       </c>
       <c r="D91" s="1">
-        <v>44562</v>
+        <v>44698</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44982</v>
       </c>
       <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>870</v>
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>872</v>
+      </c>
+      <c r="L91" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B92" s="1">
         <v>44562</v>
       </c>
+      <c r="C92" s="1">
+        <v>45181</v>
+      </c>
       <c r="D92" s="1">
         <v>44562</v>
       </c>
+      <c r="E92" s="1">
+        <v>45181</v>
+      </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>871</v>
+        <v>875</v>
+      </c>
+      <c r="K92" s="2">
+        <v>874</v>
+      </c>
+      <c r="L92" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B93" s="1">
-        <v>44697</v>
+        <v>44837</v>
       </c>
       <c r="D93" s="1">
-        <v>44698</v>
+        <v>44838</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="K93" s="2">
-        <v>872</v>
-      </c>
-      <c r="L93" t="s">
-        <v>13</v>
+      <c r="J93">
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B94" s="1">
-        <v>44562</v>
+        <v>44859</v>
       </c>
       <c r="C94" s="1">
-        <v>45181</v>
+        <v>45397</v>
       </c>
       <c r="D94" s="1">
-        <v>44562</v>
+        <v>44859</v>
       </c>
       <c r="E94" s="1">
-        <v>45181</v>
+        <v>45397</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>875</v>
-      </c>
-      <c r="K94" s="2">
-        <v>874</v>
-      </c>
-      <c r="L94" t="s">
-        <v>8</v>
+        <v>877</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B95" s="1">
-        <v>44837</v>
+        <v>44854</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45693</v>
       </c>
       <c r="D95" s="1">
-        <v>44838</v>
+        <v>44854</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45686</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="J95">
-        <v>876</v>
+      <c r="K95" s="2">
+        <v>879</v>
+      </c>
+      <c r="L95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B96" s="1">
-        <v>44859</v>
+        <v>44562</v>
       </c>
       <c r="C96" s="1">
-        <v>45397</v>
+        <v>44813</v>
       </c>
       <c r="D96" s="1">
-        <v>44859</v>
+        <v>44563</v>
       </c>
       <c r="E96" s="1">
-        <v>45397</v>
+        <v>44676</v>
       </c>
       <c r="F96">
         <v>0</v>
-      </c>
-      <c r="J96">
-        <v>877</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B97" s="1">
-        <v>44854</v>
+        <v>44834</v>
       </c>
       <c r="C97" s="1">
-        <v>45693</v>
+        <v>45287</v>
       </c>
       <c r="D97" s="1">
-        <v>44854</v>
+        <v>44834</v>
       </c>
       <c r="E97" s="1">
-        <v>45686</v>
+        <v>45285</v>
       </c>
       <c r="F97">
         <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <v>879</v>
-      </c>
-      <c r="L97" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B98" s="1">
-        <v>44562</v>
-      </c>
-      <c r="C98" s="1">
-        <v>44813</v>
+        <v>44697</v>
       </c>
       <c r="D98" s="1">
-        <v>44563</v>
-      </c>
-      <c r="E98" s="1">
-        <v>44676</v>
+        <v>44698</v>
       </c>
       <c r="F98">
         <v>0</v>
+      </c>
+      <c r="J98">
+        <v>882</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B99" s="1">
-        <v>44834</v>
+        <v>44697</v>
       </c>
       <c r="C99" s="1">
-        <v>45287</v>
+        <v>45102</v>
       </c>
       <c r="D99" s="1">
-        <v>44834</v>
+        <v>44698</v>
       </c>
       <c r="E99" s="1">
-        <v>45285</v>
+        <v>45102</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>882</v>
+        <v>935</v>
       </c>
       <c r="B100" s="1">
-        <v>44697</v>
+        <v>44928</v>
       </c>
       <c r="D100" s="1">
-        <v>44698</v>
+        <v>44928</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>882</v>
+        <v>935</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>883</v>
+        <v>936</v>
       </c>
       <c r="B101" s="1">
-        <v>44697</v>
+        <v>44948</v>
       </c>
       <c r="C101" s="1">
-        <v>45102</v>
+        <v>45134</v>
       </c>
       <c r="D101" s="1">
-        <v>44698</v>
+        <v>44948</v>
       </c>
       <c r="E101" s="1">
-        <v>45102</v>
+        <v>45134</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>935</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="B102" s="1">
-        <v>44928</v>
+        <v>44844</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45281</v>
       </c>
       <c r="D102" s="1">
-        <v>44928</v>
+        <v>44844</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45281</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="K102" s="2">
+        <v>937</v>
+      </c>
+      <c r="L102" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="B103" s="1">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="C103" s="1">
-        <v>45134</v>
+        <v>45785</v>
       </c>
       <c r="D103" s="1">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="E103" s="1">
-        <v>45134</v>
+        <v>45785</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>935</v>
+        <v>951</v>
+      </c>
+      <c r="K103" s="2">
+        <v>948</v>
+      </c>
+      <c r="L103" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B104" s="1">
-        <v>44844</v>
-      </c>
-      <c r="C104" s="1">
-        <v>45281</v>
+        <v>44859</v>
       </c>
       <c r="D104" s="1">
-        <v>44844</v>
+        <v>45705</v>
       </c>
       <c r="E104" s="1">
-        <v>45281</v>
+        <v>45894</v>
       </c>
       <c r="F104">
         <v>0</v>
-      </c>
-      <c r="J104">
-        <v>936</v>
-      </c>
-      <c r="K104" s="2">
-        <v>937</v>
-      </c>
-      <c r="L104" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B105" s="1">
-        <v>45012</v>
+        <v>44915</v>
       </c>
       <c r="C105" s="1">
-        <v>45785</v>
+        <v>45175</v>
       </c>
       <c r="D105" s="1">
-        <v>45013</v>
+        <v>44955</v>
       </c>
       <c r="E105" s="1">
-        <v>45785</v>
+        <v>45175</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>951</v>
-      </c>
-      <c r="K105" s="2">
-        <v>948</v>
-      </c>
-      <c r="L105" t="s">
-        <v>8</v>
+        <v>953</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B106" s="1">
-        <v>44859</v>
+        <v>44949</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45369</v>
       </c>
       <c r="D106" s="1">
-        <v>45705</v>
+        <v>45228</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45369</v>
       </c>
       <c r="F106">
         <v>0</v>
+      </c>
+      <c r="J106">
+        <v>954</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B107" s="1">
-        <v>44915</v>
+        <v>44914</v>
       </c>
       <c r="C107" s="1">
-        <v>45175</v>
+        <v>45844</v>
       </c>
       <c r="D107" s="1">
-        <v>44955</v>
+        <v>44976</v>
       </c>
       <c r="E107" s="1">
-        <v>45175</v>
+        <v>45844</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B108" s="1">
-        <v>44949</v>
+        <v>44893</v>
       </c>
       <c r="C108" s="1">
-        <v>45369</v>
+        <v>45675</v>
       </c>
       <c r="D108" s="1">
-        <v>45228</v>
+        <v>44958</v>
       </c>
       <c r="E108" s="1">
-        <v>45369</v>
+        <v>45675</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B109" s="1">
-        <v>44914</v>
+        <v>44893</v>
       </c>
       <c r="C109" s="1">
-        <v>45844</v>
+        <v>45747</v>
       </c>
       <c r="D109" s="1">
-        <v>44976</v>
+        <v>44895</v>
       </c>
       <c r="E109" s="1">
-        <v>45844</v>
+        <v>45747</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="B110" s="1">
-        <v>44893</v>
-      </c>
-      <c r="C110" s="1">
-        <v>45675</v>
+        <v>45749</v>
       </c>
       <c r="D110" s="1">
-        <v>44958</v>
-      </c>
-      <c r="E110" s="1">
-        <v>45675</v>
+        <v>45750</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>956</v>
+        <v>998</v>
+      </c>
+      <c r="K110" s="2">
+        <v>997</v>
+      </c>
+      <c r="L110" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="B111" s="1">
-        <v>44893</v>
-      </c>
-      <c r="C111" s="1">
-        <v>45747</v>
+        <v>45418</v>
       </c>
       <c r="D111" s="1">
-        <v>44895</v>
-      </c>
-      <c r="E111" s="1">
-        <v>45747</v>
+        <v>45418</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>957</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B112" s="1">
-        <v>45749</v>
+        <v>45483</v>
       </c>
       <c r="D112" s="1">
-        <v>45750</v>
+        <v>45483</v>
       </c>
       <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>1024</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45529</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45747</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45529</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45747</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1024</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N113" t="s">
+        <v>16</v>
+      </c>
+      <c r="O113" s="2">
+        <v>1026</v>
+      </c>
+      <c r="P113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1071</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45731</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45866</v>
+      </c>
+      <c r="F114">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>998</v>
-      </c>
-      <c r="K112" s="2">
-        <v>997</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="J114">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>1073</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45892</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45752</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45892</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1078</v>
+      </c>
+      <c r="L115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>1000</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45418</v>
-      </c>
-      <c r="D113" s="1">
-        <v>45418</v>
-      </c>
-      <c r="F113">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>1074</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45762</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45762</v>
+      </c>
+      <c r="F116">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>1001</v>
-      </c>
-      <c r="B114" s="1">
-        <v>45483</v>
-      </c>
-      <c r="D114" s="1">
-        <v>45483</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>1024</v>
-      </c>
-      <c r="B115" s="1">
-        <v>45529</v>
-      </c>
-      <c r="C115" s="1">
-        <v>45747</v>
-      </c>
-      <c r="D115" s="1">
-        <v>45529</v>
-      </c>
-      <c r="E115" s="1">
-        <v>45747</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>1024</v>
-      </c>
-      <c r="K115" s="2">
-        <v>1022</v>
-      </c>
-      <c r="L115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>1025</v>
-      </c>
-      <c r="B116" s="1">
-        <v>45529</v>
-      </c>
-      <c r="D116" s="1">
-        <v>45529</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>1026</v>
+        <v>1077</v>
       </c>
       <c r="B117" s="1">
-        <v>45529</v>
+        <v>45864</v>
       </c>
       <c r="D117" s="1">
-        <v>45529</v>
+        <v>45864</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45872</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="B118" s="1">
-        <v>45731</v>
+        <v>45832</v>
       </c>
       <c r="D118" s="1">
-        <v>45731</v>
+        <v>45832</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="J118">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1082</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="B119" s="1">
-        <v>45752</v>
-      </c>
-      <c r="C119" s="1">
-        <v>45892</v>
+        <v>45743</v>
       </c>
       <c r="D119" s="1">
-        <v>45752</v>
-      </c>
-      <c r="E119" s="1">
-        <v>45892</v>
+        <v>45743</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1085</v>
       </c>
       <c r="K119" s="2">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="L119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>1074</v>
-      </c>
-      <c r="B120" s="1">
-        <v>45762</v>
-      </c>
-      <c r="D120" s="1">
-        <v>45762</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>1077</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45864</v>
-      </c>
-      <c r="D121" s="1">
-        <v>45864</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>1082</v>
-      </c>
-      <c r="B122" s="1">
-        <v>45832</v>
-      </c>
-      <c r="D122" s="1">
-        <v>45832</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>1082</v>
-      </c>
-      <c r="K122" s="2">
-        <v>1083</v>
-      </c>
-      <c r="L122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>1085</v>
-      </c>
-      <c r="B123" s="1">
-        <v>45743</v>
-      </c>
-      <c r="D123" s="1">
-        <v>45743</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>1085</v>
-      </c>
-      <c r="K123" s="2">
-        <v>1084</v>
-      </c>
-      <c r="L123" t="s">
         <v>15</v>
       </c>
     </row>
